--- a/test/ActivityCfg.xlsx
+++ b/test/ActivityCfg.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="true" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24654B0-6CEA-334C-9E25-E3EBC6261BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="活动项配置" sheetId="2" r:id="rId4"/>
+    <sheet name="活动项配置" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>活动描述</t>
   </si>
@@ -23,18 +24,48 @@
   </si>
   <si>
     <t>活动名</t>
+  </si>
+  <si>
+    <t>tttt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyyyyy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdfsdfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cvbcbvcvb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>324dsfxcv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2342sdggcxv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -61,128 +92,136 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<theme xmlns="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
-  <themeElements>
-    <clrScheme name="Office">
-      <dk1>
-        <sysClr val="windowText" lastClr="000000"/>
-      </dk1>
-      <lt1>
-        <sysClr val="window" lastClr="FFFFFF"/>
-      </lt1>
-      <dk2>
-        <srgbClr val="44546A"/>
-      </dk2>
-      <lt2>
-        <srgbClr val="E7E6E6"/>
-      </lt2>
-      <accent1>
-        <srgbClr val="5B9BD5"/>
-      </accent1>
-      <accent2>
-        <srgbClr val="ED7D31"/>
-      </accent2>
-      <accent3>
-        <srgbClr val="A5A5A5"/>
-      </accent3>
-      <accent4>
-        <srgbClr val="FFC000"/>
-      </accent4>
-      <accent5>
-        <srgbClr val="4472C4"/>
-      </accent5>
-      <accent6>
-        <srgbClr val="70AD47"/>
-      </accent6>
-      <hlink>
-        <srgbClr val="0563C1"/>
-      </hlink>
-      <folHlink>
-        <srgbClr val="954F72"/>
-      </folHlink>
-    </clrScheme>
-    <fontScheme name="Office">
-      <majorFont>
-        <latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <ea typeface=""/>
-        <cs typeface=""/>
-        <font script="Jpan" typeface="游ゴシック Light"/>
-        <font script="Hang" typeface="맑은 고딕"/>
-        <font script="Hans" typeface="等线 Light"/>
-        <font script="Hant" typeface="新細明體"/>
-        <font script="Arab" typeface="Times New Roman"/>
-        <font script="Hebr" typeface="Times New Roman"/>
-        <font script="Thai" typeface="Tahoma"/>
-        <font script="Ethi" typeface="Nyala"/>
-        <font script="Beng" typeface="Vrinda"/>
-        <font script="Gujr" typeface="Shruti"/>
-        <font script="Khmr" typeface="MoolBoran"/>
-        <font script="Knda" typeface="Tunga"/>
-        <font script="Guru" typeface="Raavi"/>
-        <font script="Cans" typeface="Euphemia"/>
-        <font script="Cher" typeface="Plantagenet Cherokee"/>
-        <font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <font script="Tibt" typeface="Microsoft Himalaya"/>
-        <font script="Thaa" typeface="MV Boli"/>
-        <font script="Deva" typeface="Mangal"/>
-        <font script="Telu" typeface="Gautami"/>
-        <font script="Taml" typeface="Latha"/>
-        <font script="Syrc" typeface="Estrangelo Edessa"/>
-        <font script="Orya" typeface="Kalinga"/>
-        <font script="Mlym" typeface="Kartika"/>
-        <font script="Laoo" typeface="DokChampa"/>
-        <font script="Sinh" typeface="Iskoola Pota"/>
-        <font script="Mong" typeface="Mongolian Baiti"/>
-        <font script="Viet" typeface="Times New Roman"/>
-        <font script="Uigh" typeface="Microsoft Uighur"/>
-        <font script="Geor" typeface="Sylfaen"/>
-      </majorFont>
-      <minorFont>
-        <latin typeface="Calibri" panose="020F0502020204030204"/>
-        <ea typeface=""/>
-        <cs typeface=""/>
-        <font script="Jpan" typeface="游ゴシック"/>
-        <font script="Hang" typeface="맑은 고딕"/>
-        <font script="Hans" typeface="等线"/>
-        <font script="Hant" typeface="新細明體"/>
-        <font script="Arab" typeface="Arial"/>
-        <font script="Hebr" typeface="Arial"/>
-        <font script="Thai" typeface="Tahoma"/>
-        <font script="Ethi" typeface="Nyala"/>
-        <font script="Beng" typeface="Vrinda"/>
-        <font script="Gujr" typeface="Shruti"/>
-        <font script="Khmr" typeface="DaunPenh"/>
-        <font script="Knda" typeface="Tunga"/>
-        <font script="Guru" typeface="Raavi"/>
-        <font script="Cans" typeface="Euphemia"/>
-        <font script="Cher" typeface="Plantagenet Cherokee"/>
-        <font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <font script="Tibt" typeface="Microsoft Himalaya"/>
-        <font script="Thaa" typeface="MV Boli"/>
-        <font script="Deva" typeface="Mangal"/>
-        <font script="Telu" typeface="Gautami"/>
-        <font script="Taml" typeface="Latha"/>
-        <font script="Syrc" typeface="Estrangelo Edessa"/>
-        <font script="Orya" typeface="Kalinga"/>
-        <font script="Mlym" typeface="Kartika"/>
-        <font script="Laoo" typeface="DokChampa"/>
-        <font script="Sinh" typeface="Iskoola Pota"/>
-        <font script="Mong" typeface="Mongolian Baiti"/>
-        <font script="Viet" typeface="Arial"/>
-        <font script="Uigh" typeface="Microsoft Uighur"/>
-        <font script="Geor" typeface="Sylfaen"/>
-      </minorFont>
-    </fontScheme>
-    <fmtScheme name="Office">
-      <fillStyleLst>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -238,8 +277,8 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </fillStyleLst>
-      <lnStyleLst>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -261,8 +300,8 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-      </lnStyleLst>
-      <effectStyleLst>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst/>
         </a:effectStyle>
@@ -278,8 +317,8 @@
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
-      </effectStyleLst>
-      <bgFillStyleLst>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -316,22 +355,25 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </bgFillStyleLst>
-    </fmtScheme>
-  </themeElements>
-  <objectDefaults/>
-  <extraClrSchemeLst/>
-</theme>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -342,6 +384,41 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test/ActivityCfg.xlsx
+++ b/test/ActivityCfg.xlsx
@@ -1,82 +1,576 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24654B0-6CEA-334C-9E25-E3EBC6261BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27015" windowHeight="12975"/>
   </bookViews>
   <sheets>
-    <sheet name="活动项配置" sheetId="2" r:id="rId1"/>
+    <sheet name="#活动项配置" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>PBJSON</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Id
+int32
+活动id</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ActivityType
+int32
+1排位；2比赛</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>MissionType
+int32
+活动任务的完成条件</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ProgressTotal
+int32
+进度需要达到这个才算完成</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ActivityDesc
+string
+活动界面展示的描述信息</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ActivityTime
+int32
+单位：天</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <t>Rewards
+array of (inline message (pbjson.奖励配置) {
+  道具ID: int32,
+  奖励数量: int32
+})
+{道具,数量},{道具,数量} 的形式配置</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>活动类型</t>
+  </si>
+  <si>
+    <t>任务类型</t>
+  </si>
+  <si>
+    <t>完成条件</t>
+  </si>
   <si>
     <t>活动描述</t>
   </si>
   <si>
-    <t>活动ID</t>
-  </si>
-  <si>
-    <t>活动名</t>
-  </si>
-  <si>
-    <t>tttt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yyyyyy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sdfsdfs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cvbcbvcvb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>324dsfxcv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2342sdggcxv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>活动奖励</t>
+  </si>
+  <si>
+    <t>持续时间</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>登录游戏</t>
+  </si>
+  <si>
+    <t>{1001,200},{1002,2050}</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>参与任意模式游戏1次</t>
+  </si>
+  <si>
+    <t>{1002,200}</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>{1003,200}</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>{1004,200}</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>任意模式游戏胜利10次</t>
+  </si>
+  <si>
+    <t>{1005,200}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -84,33 +578,329 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="WPS">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -124,38 +914,38 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4874CB"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="EE822F"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="F2BA02"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="75BD42"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="30C0B4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="E54C5E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0026E5"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="7E1FAD"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="WPS">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -185,12 +975,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -220,66 +1010,40 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="WPS">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:lumOff val="17500"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
+              <a:schemeClr val="phClr"/>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="2700000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:hueOff val="-2520000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
+              <a:schemeClr val="phClr"/>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="2700000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -293,20 +1057,38 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="phClr">
+                  <a:hueOff val="-4200000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="phClr"/>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="2700000" scaled="1"/>
+          </a:gradFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:schemeClr val="phClr">
+                <a:alpha val="60000"/>
+              </a:schemeClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
@@ -359,66 +1141,169 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="7.125" collapsed="false"/>
+    <col min="2" max="4" customWidth="true" style="1" width="9.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="1" width="21.375" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="1" width="27.125" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="1" width="9.0" collapsed="false"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>